--- a/Altium project/cSLIM-V1/Project Outputs for cSLIM-V1/BOM/cSLIMv1_BOM_extra_materials.xlsx
+++ b/Altium project/cSLIM-V1/Project Outputs for cSLIM-V1/BOM/cSLIMv1_BOM_extra_materials.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetleba\Documents\SKOLE\Fordypningsprosjekt\IoF\Altium project\cSLIM-V1\Project Outputs for cSLIM-V1\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetleba\Documents\SKOLE\02_Fordypningsprosjekt\IoF\Altium project\cSLIM-V1\Project Outputs for cSLIM-V1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B04F1-8323-4EE5-8D67-87DAB2DAE29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F554E1E-AF06-40A2-8100-7D205903EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{231BC029-485F-42D6-A87B-EBBF7E858E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{231BC029-485F-42D6-A87B-EBBF7E858E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -339,9 +336,6 @@
     <t>IC1201</t>
   </si>
   <si>
-    <t>NRF9160-SICA-R7</t>
-  </si>
-  <si>
     <t>IC RF TxRx + MCU Cellular GPS 700MHz ~ 2.2GHz 161-TFLGA Module</t>
   </si>
   <si>
@@ -856,6 +850,9 @@
   </si>
   <si>
     <t>Alum.Organic Polymer Capacitors 100UF 25V ESR=27</t>
+  </si>
+  <si>
+    <t>NRF9160-SICA-B1A-R7</t>
   </si>
 </sst>
 </file>
@@ -1023,14 +1020,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1041,14 +1032,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,19 +1063,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Bill of Materials-cSLIM_V1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,8 +1367,8 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,17 +1398,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1559,7 +1543,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1848,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,899 +1905,899 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6">
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6">
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6">
         <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6">
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6">
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
         <v>2</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
         <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="C59" s="6">
         <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="6">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="E60" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C61" s="6">
         <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="C62" s="6">
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="C63" s="6">
         <v>12</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="C64" s="6">
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C65" s="6">
         <v>3</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="C67" s="6">
         <v>3</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="C69" s="6">
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="6">
-        <v>1</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="E71" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="E72" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="C74" s="6">
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="6">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C76" s="6">
         <v>2</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="C77" s="6">
         <v>2</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6">
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6">
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="10">
         <v>1</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E81" s="8" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6">
         <v>1</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E83" s="12" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6">
         <v>3</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E84" s="12" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="12" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17">
+        <v>1</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20">
-        <v>1</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6">
         <v>1</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E88" s="12" t="s">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6">
         <v>1</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E89" s="12" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6">
         <v>1</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>263</v>
+      <c r="D90" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
